--- a/Programação em Microinformática/EXERCICIO 5 - E OU ALUNOS.xlsx
+++ b/Programação em Microinformática/EXERCICIO 5 - E OU ALUNOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\Programação em Microinformática\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duanl\Documents\FATEC\Programação em Microinformática\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EC0D3D-CEEE-437D-9298-CF81114A76AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0468F26-A311-4C85-851D-7207E013A177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FUNÇAO E" sheetId="2" r:id="rId1"/>
@@ -30,6 +30,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -783,6 +794,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -843,8 +856,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -865,9 +876,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -905,7 +916,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1011,7 +1022,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1153,7 +1164,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1163,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection sqref="A1:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,36 +1190,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="20" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="1">
         <v>60</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1798,7 +1809,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection sqref="A1:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1814,19 +1825,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="26" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="27"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2027,20 +2038,20 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="25"/>
+      <c r="C12" s="27"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -2066,8 +2077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection sqref="A1:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2080,18 +2091,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="F1" s="29" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="F1" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2106,10 +2117,10 @@
       <c r="D2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2125,10 +2136,10 @@
         <f>IF(AND(B3="2 EM",C3="NÃO"),"SELECIONADO","DESCLASSIFICADO")</f>
         <v>DESCLASSIFICADO</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2144,10 +2155,10 @@
         <f t="shared" ref="D4:D20" si="0">IF(AND(B4="2 EM",C4="NÃO"),"SELECIONADO","DESCLASSIFICADO")</f>
         <v>DESCLASSIFICADO</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2402,8 +2413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2415,13 +2426,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -2603,20 +2614,20 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2632,8 +2643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2668,18 +2679,18 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2697,9 +2708,9 @@
       <c r="E6" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2718,9 +2729,9 @@
         <f>IF(OR(C7=$A$2,C7=$A$3,D7=$A$4,),"SERÁ SELECIONADO","NÃO SELECIONADO")</f>
         <v>SERÁ SELECIONADO</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -2739,9 +2750,9 @@
         <f t="shared" ref="E8:E15" si="0">IF(OR(C8=$A$2,C8=$A$3,D8=$A$4,),"SERÁ SELECIONADO","NÃO SELECIONADO")</f>
         <v>NÃO SELECIONADO</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2758,9 +2769,9 @@
         <f t="shared" si="0"/>
         <v>SERÁ SELECIONADO</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -2880,8 +2891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection sqref="A1:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2895,34 +2906,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="33">
+      <c r="B1" s="35">
         <v>9</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="33"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="35"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -2943,10 +2954,10 @@
       <c r="F4" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -3338,8 +3349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3351,13 +3362,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -3373,12 +3384,12 @@
       <c r="E2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3397,10 +3408,10 @@
         <f>IF(OR(B3&gt;33,C3&gt;6,D3&lt;5),"CLASSIFICADO","DESCLASSIFICADO")</f>
         <v>CLASSIFICADO</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -3419,10 +3430,10 @@
         <f t="shared" ref="E4:E11" si="0">IF(OR(B4&gt;33,C4&gt;6,D4&lt;5),"CLASSIFICADO","DESCLASSIFICADO")</f>
         <v>CLASSIFICADO</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -3564,8 +3575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3582,11 +3593,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3607,13 +3618,13 @@
       <c r="C4" s="3">
         <v>0.08</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -3625,11 +3636,11 @@
       <c r="C5" s="3">
         <v>0.08</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -3641,11 +3652,11 @@
       <c r="C6" s="3">
         <v>0.05</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -3660,13 +3671,13 @@
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -3682,11 +3693,11 @@
         <f>B9*C9</f>
         <v>4</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -3702,11 +3713,11 @@
         <f t="shared" ref="D10:D12" si="0">B10*C10</f>
         <v>30</v>
       </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -3722,11 +3733,11 @@
         <f t="shared" si="0"/>
         <v>299</v>
       </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -3768,13 +3779,13 @@
         <f>IF(OR(D15=A4,D15=A5),"8% DE DESCONTO",IF(D15=A6,"5% DE DESCONTO","NENHUM DESCONTO"))</f>
         <v>5% DE DESCONTO</v>
       </c>
-      <c r="E17" s="40"/>
+      <c r="E17" s="20"/>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="19">
         <f>IF(OR(D15=A4,D15=A5),D13-D13*$C$4,D13+D13*C6)</f>
         <v>714.52499999999998</v>
       </c>
@@ -3797,6 +3808,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004CA63B502DA48642819285553564F79F" ma:contentTypeVersion="8" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="607f800787e7f5e1ca334967dcf5411e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d25fcf7-4d30-446b-bfdf-c85bcb62c1bd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="463be8865535a91b84933ff1f9b36872" ns2:_="">
     <xsd:import namespace="5d25fcf7-4d30-446b-bfdf-c85bcb62c1bd"/>
@@ -3964,22 +3990,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5DDDFC8-39BA-4EA6-B643-9FD517FF1A38}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BC821B3-0E4E-4B6C-9B43-A01E9E3F9729}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4D8F89C-BF8F-4B3C-B04E-450592236239}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3995,21 +4023,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BC821B3-0E4E-4B6C-9B43-A01E9E3F9729}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5DDDFC8-39BA-4EA6-B643-9FD517FF1A38}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Programação em Microinformática/EXERCICIO 5 - E OU ALUNOS.xlsx
+++ b/Programação em Microinformática/EXERCICIO 5 - E OU ALUNOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duanl\Documents\FATEC\Programação em Microinformática\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\Programação em Microinformática\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0468F26-A311-4C85-851D-7207E013A177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EC0D3D-CEEE-437D-9298-CF81114A76AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FUNÇAO E" sheetId="2" r:id="rId1"/>
@@ -30,17 +30,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -794,8 +783,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -856,6 +843,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -876,9 +865,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -916,7 +905,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1022,7 +1011,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1164,7 +1153,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1174,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection sqref="A1:I21"/>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,36 +1179,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="22" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="1">
         <v>60</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1809,7 +1798,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:I13"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1825,19 +1814,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="28" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="29"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2038,20 +2027,20 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="27"/>
+      <c r="C12" s="25"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -2077,8 +2066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection sqref="A1:I20"/>
+    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2091,18 +2080,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="F1" s="31" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="F1" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2117,10 +2106,10 @@
       <c r="D2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2136,10 +2125,10 @@
         <f>IF(AND(B3="2 EM",C3="NÃO"),"SELECIONADO","DESCLASSIFICADO")</f>
         <v>DESCLASSIFICADO</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2155,10 +2144,10 @@
         <f t="shared" ref="D4:D20" si="0">IF(AND(B4="2 EM",C4="NÃO"),"SELECIONADO","DESCLASSIFICADO")</f>
         <v>DESCLASSIFICADO</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2413,8 +2402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection sqref="A1:E14"/>
+    <sheetView zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2426,13 +2415,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -2614,20 +2603,20 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2643,8 +2632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:H15"/>
+    <sheetView zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2679,18 +2668,18 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2708,9 +2697,9 @@
       <c r="E6" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2729,9 +2718,9 @@
         <f>IF(OR(C7=$A$2,C7=$A$3,D7=$A$4,),"SERÁ SELECIONADO","NÃO SELECIONADO")</f>
         <v>SERÁ SELECIONADO</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -2750,9 +2739,9 @@
         <f t="shared" ref="E8:E15" si="0">IF(OR(C8=$A$2,C8=$A$3,D8=$A$4,),"SERÁ SELECIONADO","NÃO SELECIONADO")</f>
         <v>NÃO SELECIONADO</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2769,9 +2758,9 @@
         <f t="shared" si="0"/>
         <v>SERÁ SELECIONADO</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -2891,8 +2880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection sqref="A1:J21"/>
+    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2906,34 +2895,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="35">
+      <c r="B1" s="33">
         <v>9</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="35"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="33"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -2954,10 +2943,10 @@
       <c r="F4" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -3349,8 +3338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3362,13 +3351,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -3384,12 +3373,12 @@
       <c r="E2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3408,10 +3397,10 @@
         <f>IF(OR(B3&gt;33,C3&gt;6,D3&lt;5),"CLASSIFICADO","DESCLASSIFICADO")</f>
         <v>CLASSIFICADO</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -3430,10 +3419,10 @@
         <f t="shared" ref="E4:E11" si="0">IF(OR(B4&gt;33,C4&gt;6,D4&lt;5),"CLASSIFICADO","DESCLASSIFICADO")</f>
         <v>CLASSIFICADO</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -3575,8 +3564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:J18"/>
+    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3593,11 +3582,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3618,13 +3607,13 @@
       <c r="C4" s="3">
         <v>0.08</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -3636,11 +3625,11 @@
       <c r="C5" s="3">
         <v>0.08</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -3652,11 +3641,11 @@
       <c r="C6" s="3">
         <v>0.05</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -3671,13 +3660,13 @@
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -3693,11 +3682,11 @@
         <f>B9*C9</f>
         <v>4</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -3713,11 +3702,11 @@
         <f t="shared" ref="D10:D12" si="0">B10*C10</f>
         <v>30</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -3733,11 +3722,11 @@
         <f t="shared" si="0"/>
         <v>299</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -3779,13 +3768,13 @@
         <f>IF(OR(D15=A4,D15=A5),"8% DE DESCONTO",IF(D15=A6,"5% DE DESCONTO","NENHUM DESCONTO"))</f>
         <v>5% DE DESCONTO</v>
       </c>
-      <c r="E17" s="20"/>
+      <c r="E17" s="40"/>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="39">
         <f>IF(OR(D15=A4,D15=A5),D13-D13*$C$4,D13+D13*C6)</f>
         <v>714.52499999999998</v>
       </c>
@@ -3808,21 +3797,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004CA63B502DA48642819285553564F79F" ma:contentTypeVersion="8" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="607f800787e7f5e1ca334967dcf5411e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d25fcf7-4d30-446b-bfdf-c85bcb62c1bd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="463be8865535a91b84933ff1f9b36872" ns2:_="">
     <xsd:import namespace="5d25fcf7-4d30-446b-bfdf-c85bcb62c1bd"/>
@@ -3990,24 +3964,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5DDDFC8-39BA-4EA6-B643-9FD517FF1A38}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BC821B3-0E4E-4B6C-9B43-A01E9E3F9729}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4D8F89C-BF8F-4B3C-B04E-450592236239}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4023,4 +3995,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BC821B3-0E4E-4B6C-9B43-A01E9E3F9729}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5DDDFC8-39BA-4EA6-B643-9FD517FF1A38}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>